--- a/Drivers_images.xlsx
+++ b/Drivers_images.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\52771\OneDrive - Benemérita Universidad Autónoma de Puebla\Análisis de Datos Primavera 2023\projects\f1\Formula-1-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://correobuap-my.sharepoint.com/personal/hessael_lopez_alumno_buap_mx/Documents/Análisis de Datos Primavera 2023/projects/f1/Formula-1-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752956E4-48D8-4CFB-9A68-77A46BD9CB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{752956E4-48D8-4CFB-9A68-77A46BD9CB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC5644CA-B364-4013-BB6C-B4A73327D7CF}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Drivers" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
   <si>
     <t>alguersuari</t>
   </si>
@@ -247,99 +247,9 @@
     <t>Imagen</t>
   </si>
   <si>
-    <t>https://en.wikipedia.org/wiki/Fernando_Alonso#/media/File:Alonso_2016.jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Rubens_Barrichello#/media/File:Rubens_Barrichello_2010_Malaysia.jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/S%C3%A9bastien_Buemi#/media/File:Sebastien_Buemi_-_Red_Bull_Racing_(cropped).jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Jenson_Button#/media/File:Jenson_Button_Bahrain_2012_(crop).jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Karun_Chandhok#/media/File:Karun_Chandhok_Goodwood_Festival_of_Speed_2019_(48242680701).jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Pedro_de_la_Rosa#/media/File:Pedro_de_la_Rosa_2010_Malaysia.jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Lucas_di_Grassi#/media/File:TechCrunch_Disrupt_Berlin_2018_(Day_1)_08_(cropped).jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Timo_Glock#/media/File:Timo_Glock_Canada_2011-Cropped.jpg</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Lewis_Hamilton#/media/File:Lewis_Hamilton_2022_S%C3%A3o_Paulo_Grand_Prix_(52498120773)_(cropped).jpg</t>
   </si>
   <si>
-    <t>https://en.wikipedia.org/wiki/Nick_Heidfeld#/media/File:Nick_Heidfeld_Goodwood_Festival_of_Speed_2019_(48242681251).jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Nico_H%C3%BClkenberg#/media/File:Nico_Hulkenberg_2016_Malaysia.jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Christian_Klien#/media/File:Christian_Klien_(13994163352).jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Kamui_Kobayashi#/media/File:Kamui_Kobayashi_2010_Malaysia.jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Heikki_Kovalainen#/media/File:Effect_20190609_091716.jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Robert_Kubica#/media/File:2019_Formula_One_tests_Barcelona,_Kubica_(32309897777).jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Vitantonio_Liuzzi#/media/File:Vitantonio_Liuzzi_2011_Malaysia.jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Felipe_Massa#/media/File:Felipe_Massa_Le_Mans_Classic_2018_(cropped).jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Vitaly_Petrov#/media/File:Vitaly_Petrov_in_Goodwood.jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Nico_Rosberg#/media/File:Nico_Rosberg_2016.jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Michael_Schumacher#/media/File:A%C3%A9cio_Neves,_Michael_Schumacher_e_Didi_(Cropped).jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Bruno_Senna#/media/File:Bruno_Senna_canada_2011.jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Jarno_Trulli#/media/File:Jarno-Trulli-2014-cropped.jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Sebastian_Vettel#/media/File:Sebastian_Vettel_-_2022236172324_2022-08-24_Champions_for_Charity_-_Sven_-_1D_X_MK_II_-_0418_-_B70I2428.jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Mark_Webber_(racing_driver)#/media/File:Mark_Webber_2017_Malaysian_GP_podium.jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Sakon_Yamamoto#/media/File:Sakon_Yamamoto_2010_Motorsport_Japan.jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/J%C3%A9r%C3%B4me_d%27Ambrosio#/media/File:DAmbrosioBerlin.jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Paul_di_Resta#/media/File:2014_DTM_HockenheimringII_Paul_di_Resta_by_2eight_8SC5384.jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Narain_Karthikeyan#/media/File:Narain_Karthikeyan_2011_Malaysia2.jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Pastor_Maldonado#/media/File:Pastor_Maldonado_2015_Malaysia.jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Sergio_P%C3%A9rez#/media/File:Sergio_P%C3%A9rez_2019_(cropped).jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Daniel_Ricciardo#/media/File:F12019_Schloss_Gabelhofen_(18).jpg</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Romain_Grosjean#/media/File:Romain_Grosjean_(2021).jpg</t>
   </si>
   <si>
@@ -466,14 +376,110 @@
     <t>driver_id</t>
   </si>
   <si>
-    <t>https://img.motoryracing.com/noticias/portada/9000/9265-n.jpg</t>
+    <t>https://images.ecestaticos.com/PNTJ1l7bei4d0RuvtJyuRkRIITo=/0x0:508x421/1200x900/filters:fill(white):format(jpg)/f.elconfidencial.com%2Foriginal%2Ff31%2F974%2Fd4c%2Ff31974d4c9ba6ecbd80462b4a9c4a0ef.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.racingnews365.com/Riders/Alonso/_570x570_crop_center-center_none/f1_2023_fa_ast_lg.png?v=1677515919</t>
+  </si>
+  <si>
+    <t>https://storage.googleapis.com/ecm-prod/assets/1/pilote/8324/portrait_Rubens_BARRICHELLO_GR8R9716_945941.png</t>
+  </si>
+  <si>
+    <t>https://formulae-widgets.s3.amazonaws.com/original/m4523_EnvisionRacing-Buemi.png</t>
+  </si>
+  <si>
+    <t>https://armorallimagecdn.imgix.net/wp-content/uploads/2022/01/JensonButton_v1.png?auto=format%2Ccompress</t>
+  </si>
+  <si>
+    <t>https://www.speakersassociates.com/wp-content/uploads/2022/02/portrait_Karun_CHANDHOK_GR8R8914_f8974d-1.png</t>
+  </si>
+  <si>
+    <t>https://www.statsf1.com/pilotes/photos/delarosa.png</t>
+  </si>
+  <si>
+    <t>https://static-files.formula-e.pulselive.com/drivers/bc4a0209-f233-46c8-afce-842d1c48358f/right/large/4a390151-89af-4931-9907-bcbaabb5a152.png</t>
+  </si>
+  <si>
+    <t>https://c8.alamy.com/comp/A3101H/german-formula-1-driver-timo-glock-during-the-car-launch-of-the-bmw-A3101H.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn-8.motorsport.com/images/mgl/0mb95oa2/s8/lewis-hamilton-mercedes-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/originals/27/1f/fe/271ffeb1ff9b2e502146f6d160735f46.png</t>
+  </si>
+  <si>
+    <t>https://cdn.racingnews365.com/Riders/Hulkenberg/_570x570_crop_center-center_none/f1_2023_nh_haa_lg.png?v=1677516393</t>
+  </si>
+  <si>
+    <t>https://www.statsf1.com/pilotes/photos/klien.png</t>
+  </si>
+  <si>
+    <t>https://storage.googleapis.com/ecm-prod/assets/1/pilote/4134/toyota-gazoo-racing-kamui-kobayashi-jpn-0018_5640d3.png</t>
+  </si>
+  <si>
+    <t>https://s.hs-data.com/gfx/person/cropped/250x250/37599.png?fallback=male</t>
+  </si>
+  <si>
+    <t>https://cdn.racingnews365.com/Riders/Kubica/_570x570_crop_center-center_none/f1_2019_rk_wil_lg.png?v=1650628568</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-GkPEdp6vI24/YQz47evrNxI/AAAAAAAAQzg/d42JfBzCcmMnZqmzjxRVjhLczpZHJbioACLcBGAsYHQ/s470/liuzzi%2Bfoto.png</t>
+  </si>
+  <si>
+    <t>https://as01.epimg.net/img/comunes/fotos/fichas/deportistas/f/fel/large/24338.png?f=201703211648</t>
+  </si>
+  <si>
+    <t>https://www.statsf1.com/pilotes/photos/petrov.png</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/f1-unione-career-by-tirowee/images/5/5d/Rospic.png/revision/latest?cb=20170716112107</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/fightclubchampfanom/images/c/c4/Michael_Schumacher.png/revision/latest?cb=20190620155818</t>
+  </si>
+  <si>
+    <t>https://storage.googleapis.com/ecm-prod/assets/1/pilote/406/bruno-senna_1014ba.png</t>
+  </si>
+  <si>
+    <t>https://www.statsf1.com/pilotes/photos/sutil.png</t>
+  </si>
+  <si>
+    <t>https://www.statsf1.com/pilotes/photos/trulli.png</t>
+  </si>
+  <si>
+    <t>https://cdn.racingnews365.com/Riders/Vettel/_570x570_crop_center-center_none/f1_2022_sv_ast_lg.png?v=1649398828</t>
+  </si>
+  <si>
+    <t>https://storage.googleapis.com/ecm-prod/assets/1/pilote/288/Mark_Webber_1_627570.png</t>
+  </si>
+  <si>
+    <t>https://www.statsf1.com/pilotes/photos/yamamotn.png</t>
+  </si>
+  <si>
+    <t>https://www.statsf1.com/pilotes/photos/dambrosi.png</t>
+  </si>
+  <si>
+    <t>https://storage.googleapis.com/ecm-prod/assets/1/pilote/4126/peugeot-totalenergies-paul-di-resta-gbr-0036_d32973.png</t>
+  </si>
+  <si>
+    <t>https://www.statsf1.com/pilotes/photos/karthike.png</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/f1-unione-career-by-tirowee/images/5/5d/Maldonado.png/revision/latest?cb=20180208171350</t>
+  </si>
+  <si>
+    <t>https://cdn.racingnews365.com/Riders/Perez/_570x570_crop_center-center_none/f1_2023_sp_red_lg.png?v=1677514593</t>
+  </si>
+  <si>
+    <t>https://cdn.racingnews365.com/Riders/Ricciardo/_570x570_crop_center-center_none/f1_2022_dr_mcl_lg.png?v=1647865571</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -608,6 +614,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -906,7 +920,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -949,11 +963,13 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -985,6 +1001,7 @@
     <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Hipervínculo" xfId="42" builtinId="8"/>
     <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1309,15 +1326,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s">
         <v>74</v>
@@ -1328,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1336,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1344,7 +1361,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1352,23 +1369,23 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>78</v>
+      <c r="B6" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>79</v>
+      <c r="B7" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -1376,7 +1393,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -1384,7 +1401,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -1392,18 +1409,18 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>83</v>
+      <c r="B11" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -1411,7 +1428,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -1419,7 +1436,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -1427,7 +1444,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -1435,7 +1452,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -1443,7 +1460,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -1451,7 +1468,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -1459,7 +1476,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -1467,7 +1484,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -1475,7 +1492,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -1483,7 +1500,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -1491,7 +1508,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -1499,7 +1516,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -1507,7 +1524,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -1515,7 +1532,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -1523,7 +1540,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -1531,7 +1548,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -1539,7 +1556,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -1547,7 +1564,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -1555,7 +1572,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -1563,7 +1580,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -1571,7 +1588,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -1579,7 +1596,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -1587,7 +1604,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -1595,7 +1612,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -1603,7 +1620,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -1611,7 +1628,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -1619,7 +1636,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -1627,7 +1644,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -1635,7 +1652,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -1643,7 +1660,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -1651,7 +1668,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -1659,7 +1676,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -1667,7 +1684,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -1675,7 +1692,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -1683,7 +1700,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -1691,7 +1708,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -1699,7 +1716,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -1707,7 +1724,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -1715,7 +1732,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -1723,7 +1740,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -1731,7 +1748,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -1739,7 +1756,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -1747,7 +1764,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -1755,7 +1772,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -1763,7 +1780,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -1771,7 +1788,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -1779,7 +1796,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -1787,7 +1804,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -1795,7 +1812,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -1803,7 +1820,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -1811,7 +1828,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -1819,7 +1836,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -1827,7 +1844,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -1835,7 +1852,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -1843,7 +1860,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -1851,7 +1868,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -1859,7 +1876,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -1867,7 +1884,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -1875,7 +1892,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -1883,7 +1900,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -1891,7 +1908,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -1899,7 +1916,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -1907,7 +1924,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -1915,10 +1932,15 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{DAB37463-A880-4750-B205-B41AE777B68B}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{A3067A2A-0ED5-4D83-AF2E-F6D0747C55AA}"/>
+    <hyperlink ref="B11" r:id="rId3" xr:uid="{58ADADBA-5B83-42E9-8ECB-6A05F2EABD73}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Drivers_images.xlsx
+++ b/Drivers_images.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://correobuap-my.sharepoint.com/personal/hessael_lopez_alumno_buap_mx/Documents/Análisis de Datos Primavera 2023/projects/f1/Formula-1-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{752956E4-48D8-4CFB-9A68-77A46BD9CB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC5644CA-B364-4013-BB6C-B4A73327D7CF}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{752956E4-48D8-4CFB-9A68-77A46BD9CB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{172A3E03-6FAE-4507-A718-891BCBE918A5}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Drivers" sheetId="1" r:id="rId1"/>
@@ -370,9 +370,6 @@
     <t>https://en.wikipedia.org/wiki/Nyck_de_Vries#/media/File:Nyck_de_Vries_IAA_2019.jpg</t>
   </si>
   <si>
-    <t>https://en.wikipedia.org/wiki/Zhou_Guanyu#/media/File:Zhou_Guanyu_at_the_2022_Austrian_Grand_Prix.jpg</t>
-  </si>
-  <si>
     <t>driver_id</t>
   </si>
   <si>
@@ -473,6 +470,9 @@
   </si>
   <si>
     <t>https://cdn.racingnews365.com/Riders/Ricciardo/_570x570_crop_center-center_none/f1_2022_dr_mcl_lg.png?v=1647865571</t>
+  </si>
+  <si>
+    <t>https://soyf1.com/wp-content/uploads/guanyu-zhou-24.png</t>
   </si>
 </sst>
 </file>
@@ -1326,15 +1326,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" t="s">
         <v>74</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1353,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1361,7 +1361,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1369,7 +1369,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1377,7 +1377,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -1385,7 +1385,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -1393,7 +1393,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -1401,7 +1401,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -1409,7 +1409,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11" t="s">
         <v>75</v>
@@ -1428,7 +1428,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -1436,7 +1436,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -1444,7 +1444,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -1452,7 +1452,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -1460,7 +1460,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -1468,7 +1468,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -1476,7 +1476,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -1484,7 +1484,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -1492,7 +1492,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -1500,7 +1500,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -1508,7 +1508,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -1516,7 +1516,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -1524,7 +1524,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -1532,7 +1532,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -1540,7 +1540,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -1548,7 +1548,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -1556,7 +1556,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -1564,7 +1564,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -1572,7 +1572,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -1580,7 +1580,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -1588,7 +1588,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -1596,7 +1596,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -1604,7 +1604,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -1932,7 +1932,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Drivers_images.xlsx
+++ b/Drivers_images.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://correobuap-my.sharepoint.com/personal/hessael_lopez_alumno_buap_mx/Documents/Análisis de Datos Primavera 2023/projects/f1/Formula-1-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{752956E4-48D8-4CFB-9A68-77A46BD9CB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{172A3E03-6FAE-4507-A718-891BCBE918A5}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="13_ncr:1_{752956E4-48D8-4CFB-9A68-77A46BD9CB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74547B2F-D04B-445E-8676-7B577911C3EE}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Drivers" sheetId="1" r:id="rId1"/>
@@ -250,126 +250,6 @@
     <t>https://en.wikipedia.org/wiki/Lewis_Hamilton#/media/File:Lewis_Hamilton_2022_S%C3%A3o_Paulo_Grand_Prix_(52498120773)_(cropped).jpg</t>
   </si>
   <si>
-    <t>https://en.wikipedia.org/wiki/Romain_Grosjean#/media/File:Romain_Grosjean_(2021).jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Charles_Pic#/media/File:Charles_Pic_Moscow_2013.jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Kimi_R%C3%A4ikk%C3%B6nen#/media/File:F12019_Schloss_Gabelhofen_(22)_(cropped).jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Jean-%C3%89ric_Vergne#/media/File:Jean-%C3%89ric_Vergne_at_2018_Berlin_ePrix_podium.jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Jules_Bianchi#/media/File:Jules_Bianchi_2012-1.JPG</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Valtteri_Bottas#/media/File:Valtteri_Bottas_at_the_2022_Austrian_Grand_Prix.jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Max_Chilton#/media/File:Max_Chilton_2.jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Esteban_Guti%C3%A9rrez#/media/File:Esteban_Guti%C3%A9rrez_en_el_Gran_Premio_de_Italia_2019_(cropped).jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Giedo_van_der_Garde#/media/File:Giedo_van_der_Garde.jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Marcus_Ericsson#/media/File:Marcus_Ericsson_(2021).jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Daniil_Kvyat#/media/File:Daniil_Kvyat_USA_2017.jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Andr%C3%A9_Lotterer#/media/File:2022_Mexico_City_ePrix_podium_-_Lotterer.jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Kevin_Magnussen#/media/File:Kevin_Magnussen,_2019_Formula_One_Tests_Barcelona_(cropped).jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Will_Stevens#/media/File:Will_Stevens_2017.jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Roberto_Merhi#/media/File:Roberto_Merhi_Austria_2022.jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Felipe_Nasr#/media/File:Piloto_Felipe_Nasr_fala_%C3%A0_imprensa_ap%C3%B3s_encontro_com_Temer_(28412246304)_(cropped).jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Alexander_Rossi#/media/File:Andretti_Autosport_Visit_180405-F-KS667-0012_(cropped).jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Carlos_Sainz_Jr.#/media/File:Formel12021-SchlossGabelhofen(15)_(cropped).jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Max_Verstappen#/media/File:Max_Verstappen_2017_Malaysia_3.jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Rio_Haryanto#/media/File:Rio_Haryanto_2016_paddock.jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Esteban_Ocon#/media/File:Esteban_Ocon_2017_Malaysia_1.jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Jolyon_Palmer#/media/File:Jolyon_Palmer_2016_Malaysia.jpg</t>
-  </si>
-  <si>
-    <t>https://es.wikipedia.org/wiki/Stoffel_Vandoorne#/media/Archivo:Stoffel_Vandoorne_IAA_2019.jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Pascal_Wehrlein#/media/File:2022_Mexico_City_ePrix_podium_-_Wehrlein.jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Pierre_Gasly#/media/File:2019_Formula_One_tests_Barcelona,_Gasly_(47200027932).jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Antonio_Giovinazzi#/media/File:2019_Formula_One_tests_Barcelona,_Giovinazzi_(47200025952).jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Brendon_Hartley#/media/File:Brendon_Hartley_Wiki.jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Lance_Stroll#/media/File:FIA_F1_Austria_2022_Lance_Stroll_(cropped).jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Charles_Leclerc#/media/File:Charles-Leclerc.jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Sergey_Sirotkin#/media/File:Sergey_Sirotkin_Moscow.jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Alex_Albon#/media/File:Alex_albon_(51383514844)_(cropped).jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Lando_Norris#/media/File:Lando_Norris,_British_GP_2022_(52382611003)_(cropped).jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/George_Russell_%28racing_driver%29#/media/File:George_Russell,_British_GP_2022_(52381430692)_(cropped).jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Jack_Aitken#/media/File:Jack-aitken---tt-assen_43226091815_o_(cropped).jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Pietro_Fittipaldi#/media/File:Pietro_and_Enzo_Fittipaldi_(cropped)_(1).jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Nicholas_Latifi#/media/File:FIA_F1_Austria_2022_Nicholas_Latifi_(cropped).jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Nikita_Mazepin#/media/File:%D0%9D%D0%B8%D0%BA%D0%B8%D1%82%D0%B0_%D0%9C%D0%B0%D0%B7%D0%B5%D0%BF%D0%B8%D0%BD_-_%D0%B8%D0%BD%D1%82%D0%B5%D1%80%D0%B2%D1%8C%D1%8E_-_2019,_02.jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Mick_Schumacher#/media/File:Mick_Schumacher_-_2022236170142_2022-08-24_Champions_for_Charity_-_Sven_-_1D_X_MK_II_-_0047_-_B70I2057.jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Yuki_Tsunoda#/media/File:2021_US_GP,_Tsunoda.jpg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Nyck_de_Vries#/media/File:Nyck_de_Vries_IAA_2019.jpg</t>
-  </si>
-  <si>
     <t>driver_id</t>
   </si>
   <si>
@@ -473,6 +353,126 @@
   </si>
   <si>
     <t>https://soyf1.com/wp-content/uploads/guanyu-zhou-24.png</t>
+  </si>
+  <si>
+    <t>https://www.jolyonpalmer.com/media/1015/homepage-cutout.png</t>
+  </si>
+  <si>
+    <t>https://static-files.formula-e.pulselive.com/drivers/bc4a0209-f233-46c8-afce-842d1c48358f/right/large/3f4d9ccc-0453-410c-8542-225bd2ebf280.png</t>
+  </si>
+  <si>
+    <t>https://static-files.formula-e.pulselive.com/drivers/bc4a0209-f233-46c8-afce-842d1c48358f/right/large/4b62fd44-831d-4b01-9f11-2aaf2c47075c.png</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/fightclubchampfanom/images/9/9e/Pierre_Gasly.png/revision/latest?cb=20210109135031</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/formula-e/images/f/fa/Antonio_Giovinazzi.png/revision/latest?cb=20220320062703</t>
+  </si>
+  <si>
+    <t>https://storage.googleapis.com/ecm-prod/assets/1/pilote/4132/toyota-gazoo-racing-brendon-hartley-nzl-0020_d33aba.png</t>
+  </si>
+  <si>
+    <t>https://www.diariomotor.com/competicion/imagenes/2021/03/aston-martin-f1-team-2021-ficha-equipo-2.png</t>
+  </si>
+  <si>
+    <t>https://www.kymillman.com/wp-content/uploads/f1/pages/driver-profiles/charles-leclerc/charles-leclerc-hero-driver.png</t>
+  </si>
+  <si>
+    <t>https://storage.googleapis.com/ecm-prod/media/cache/driver_md/assets/1/pilote/2334/sergey-sirotkin_5d00f6.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/f1-tracker/image/upload/f_auto/v1618736029/FullBody/AlbonFull.png</t>
+  </si>
+  <si>
+    <t>https://soymotor.com/sites/default/files/2023-03/lando-norris-2023.png</t>
+  </si>
+  <si>
+    <t>https://cdn.racingnews365.com/Riders/Russell/_570x570_crop_center-center_none/f1_2023_gr_mer_lg.png?v=1677515191</t>
+  </si>
+  <si>
+    <t>https://storage.googleapis.com/ecm-prod/assets/1/pilote/3897/jack-aitken_62a06a.png</t>
+  </si>
+  <si>
+    <t>https://www.escuderiatelmex.com/portal/et/imagenes_contenido/general/FULL-20230421113753-GENERAL.png</t>
+  </si>
+  <si>
+    <t>https://www.unavozcontodos.mx/wp-content/uploads/2022/02/Nicholas-Latifi.png</t>
+  </si>
+  <si>
+    <t>https://cdn.racingnews365.com/Riders/Mazepin/_570x570_crop_center-center_none/f1_2021_nm_haa_lg.png?v=1643809047</t>
+  </si>
+  <si>
+    <t>https://a.espncdn.com/combiner/i?img=/i/headshots/rpm/players/full/5654.png&amp;w=350&amp;h=254</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/f1-tracker/image/upload/f_auto/v1618736029/FullBody/TsunodaFull.png</t>
+  </si>
+  <si>
+    <t>https://motorsportnerds.com/wp-content/uploads/2022/01/Nyck-De-Vries.webp</t>
+  </si>
+  <si>
+    <t>https://soymotor.com/sites/default/files/imagenes/piloto/romain-grosjean-2020-soymotor.png</t>
+  </si>
+  <si>
+    <t>https://www.statsf1.com/pilotes/photos/pic.png</t>
+  </si>
+  <si>
+    <t>https://www.cymotorsport.com/wp-content/uploads/2019/10/Formula-1-Driver-Kimi-Raikkonen-Cranky-Yankee-F1.png</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/formula-e/images/4/4e/Jean-Eric_Vergne.png/revision/latest?cb=20220320062758</t>
+  </si>
+  <si>
+    <t>https://www.f1head.nl/wp-content/uploads/2022/10/jules-bianchi.png</t>
+  </si>
+  <si>
+    <t>https://motorsportnerds.com/wp-content/uploads/2022/03/Valtteri-Bottas-Transparent.webp</t>
+  </si>
+  <si>
+    <t>https://www.grandepremio.com.br/wp-content/uploads/2020/07/max-chilton.png</t>
+  </si>
+  <si>
+    <t>https://storage.googleapis.com/ecm-prod/assets/1/pilote/3408/gutierrez_2e0e7d.png</t>
+  </si>
+  <si>
+    <t>https://storage.googleapis.com/ecm-prod/assets/1/pilote/2881/racing-team-nederland-giedo-van-der-garde-nld-006_2f8d84.png</t>
+  </si>
+  <si>
+    <t>https://a.espncdn.com/combiner/i?img=/i/headshots/rpm/players/full/4622.png</t>
+  </si>
+  <si>
+    <t>https://www.cymotorsport.com/wp-content/uploads/2019/10/Formula-1-Driver-Daniil-Kvyat-Cranky-Yankee-F1.png</t>
+  </si>
+  <si>
+    <t>https://static-files.formula-e.pulselive.com/drivers/bc4a0209-f233-46c8-afce-842d1c48358f/right/large/e763f675-afc7-403a-89bf-d903e8ee7c6c.png</t>
+  </si>
+  <si>
+    <t>https://storage.googleapis.com/ecm-prod/assets/1/pilote/3279/kevin-magnussen_3bf251.png</t>
+  </si>
+  <si>
+    <t>https://storage.googleapis.com/ecm-prod/assets/1/pilote/4111/hertz-team-jota-william-steven-gbr-0024_aa8fd0.png</t>
+  </si>
+  <si>
+    <t>https://storage.googleapis.com/ecm-prod/assets/1/pilote/3262/roberto-merhi_1193ad.png</t>
+  </si>
+  <si>
+    <t>https://www.grandepremio.com.br/wp-content/uploads/2020/07/felipe-nasr.png</t>
+  </si>
+  <si>
+    <t>https://a.espncdn.com/combiner/i?img=/i/headshots/rpm/players/full/4667.png</t>
+  </si>
+  <si>
+    <t>https://soymotor.com/sites/default/files/2023-03/carlos-sainz-2023.png</t>
+  </si>
+  <si>
+    <t>https://www.unavozcontodos.mx/wp-content/uploads/2022/02/Max-Verstappen.png</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/f1-unione-career-by-tirowee/images/d/de/HARf.png/revision/latest?cb=20210703194100</t>
+  </si>
+  <si>
+    <t>https://cdn.racingnews365.com/Riders/ocon/_570x570_crop_center-center_none/f1_2023_eo_apn_lg.png?v=1677515223</t>
   </si>
 </sst>
 </file>
@@ -1326,15 +1326,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
         <v>74</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1353,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1361,7 +1361,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1369,7 +1369,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1377,7 +1377,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -1385,7 +1385,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -1393,7 +1393,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -1401,7 +1401,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -1409,7 +1409,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
         <v>75</v>
@@ -1428,7 +1428,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -1436,7 +1436,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -1444,7 +1444,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -1452,7 +1452,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -1460,7 +1460,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -1468,7 +1468,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -1476,7 +1476,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -1484,7 +1484,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -1492,7 +1492,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -1500,7 +1500,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -1508,7 +1508,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -1516,7 +1516,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -1524,7 +1524,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -1532,7 +1532,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -1540,7 +1540,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -1548,7 +1548,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -1556,7 +1556,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -1564,7 +1564,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -1572,7 +1572,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -1580,7 +1580,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -1588,7 +1588,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -1596,7 +1596,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -1604,7 +1604,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -1612,7 +1612,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -1620,7 +1620,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -1628,7 +1628,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -1636,7 +1636,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -1644,7 +1644,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -1652,7 +1652,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -1660,7 +1660,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -1668,7 +1668,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -1676,7 +1676,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -1684,7 +1684,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -1692,7 +1692,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -1700,7 +1700,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -1708,7 +1708,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -1716,7 +1716,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -1724,7 +1724,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -1732,7 +1732,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -1740,7 +1740,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>92</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -1748,7 +1748,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -1756,7 +1756,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>94</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -1764,7 +1764,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -1772,7 +1772,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -1780,7 +1780,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -1788,7 +1788,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -1796,7 +1796,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -1804,7 +1804,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -1812,7 +1812,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -1820,7 +1820,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -1828,15 +1828,15 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>61</v>
       </c>
-      <c r="B63" t="s">
-        <v>104</v>
+      <c r="B63" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -1844,7 +1844,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -1852,7 +1852,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -1860,7 +1860,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -1868,7 +1868,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -1876,7 +1876,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -1884,7 +1884,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -1892,7 +1892,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -1900,7 +1900,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -1908,7 +1908,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -1916,7 +1916,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -1924,7 +1924,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -1932,7 +1932,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1940,6 +1940,7 @@
     <hyperlink ref="B6" r:id="rId1" xr:uid="{DAB37463-A880-4750-B205-B41AE777B68B}"/>
     <hyperlink ref="B7" r:id="rId2" xr:uid="{A3067A2A-0ED5-4D83-AF2E-F6D0747C55AA}"/>
     <hyperlink ref="B11" r:id="rId3" xr:uid="{58ADADBA-5B83-42E9-8ECB-6A05F2EABD73}"/>
+    <hyperlink ref="B63" r:id="rId4" xr:uid="{6BEEB507-73CC-4AEC-8092-83729A60EF13}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
